--- a/Presidential Timeline.xlsx
+++ b/Presidential Timeline.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a65e975236fa3b36/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\khora\Documents\GitHub\APUSH-Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{55C5D72E-8E1C-4560-BE9A-1D1479584D58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C1E8DC6D-FE6C-4227-A56A-E40D2B86643C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D2F04F-6032-454B-98EE-397F736850BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{ED6EDC44-F4A8-46AA-B4C9-693CA238D22E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>Term</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>Anti-Masonic</t>
+  </si>
+  <si>
+    <t>Constitutional Union</t>
   </si>
 </sst>
 </file>
@@ -223,7 +226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,6 +293,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <gradientFill>
+        <stop position="0">
+          <color rgb="FFFF66FF"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF6464FF"/>
+        </stop>
+      </gradientFill>
+    </fill>
   </fills>
   <borders count="52">
     <border>
@@ -956,64 +969,88 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1024,6 +1061,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1033,18 +1079,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1054,272 +1088,275 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1329,9 +1366,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF00FF99"/>
       <color rgb="FF6464FF"/>
       <color rgb="FFFF66FF"/>
+      <color rgb="FF00FF99"/>
       <color rgb="FFFF6464"/>
       <color rgb="FFFFFF99"/>
       <color rgb="FFD77DFF"/>
@@ -1647,10 +1684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0533EE4-0E4C-457B-A0B9-30036464F7A8}">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17:L20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,876 +1699,895 @@
     <col min="5" max="5" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="14" width="7.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" customWidth="1"/>
+    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="23" t="s">
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="2" t="s">
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="117" t="s">
+      <c r="T1" s="22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="30" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="118"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="23"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="36">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1789</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="3">
         <f>A3+1</f>
         <v>1790</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="4">
         <f>B3+4</f>
         <v>1794</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="31">
         <v>1</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="24" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="2" t="s">
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="S3" s="117" t="s">
+      <c r="T3" s="22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="115">
         <v>1792</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="116">
         <f t="shared" ref="B4:B24" si="0">A4+1</f>
         <v>1793</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="117">
         <f t="shared" ref="C4:C24" si="1">B4+4</f>
         <v>1797</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="119"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="27"/>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43">
+    <row r="5" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="115">
         <f>A4+4</f>
         <v>1796</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="116">
         <f t="shared" si="0"/>
         <v>1797</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="117">
         <f t="shared" si="1"/>
         <v>1801</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="10">
         <v>2</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="52" t="s">
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="118"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="23"/>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43">
-        <f t="shared" ref="A6:A24" si="2">A5+4</f>
+    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="115">
+        <f t="shared" ref="A6:A45" si="2">A5+4</f>
         <v>1800</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="116">
         <f t="shared" si="0"/>
         <v>1801</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="117">
         <f t="shared" si="1"/>
         <v>1805</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="32">
         <v>3</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="2" t="s">
+      <c r="F6" s="98"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="43">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="115">
         <f t="shared" si="2"/>
         <v>1804</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="116">
         <f t="shared" si="0"/>
         <v>1805</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="117">
         <f t="shared" si="1"/>
         <v>1809</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="43">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="115">
         <f t="shared" si="2"/>
         <v>1808</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="116">
         <f t="shared" si="0"/>
         <v>1809</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="117">
         <f t="shared" si="1"/>
         <v>1813</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="32">
         <v>4</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43">
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="115">
         <f t="shared" si="2"/>
         <v>1812</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="116">
         <f t="shared" si="0"/>
         <v>1813</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="117">
         <f t="shared" si="1"/>
         <v>1817</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="43">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="115">
         <f t="shared" si="2"/>
         <v>1816</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="116">
         <f t="shared" si="0"/>
         <v>1817</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="117">
         <f t="shared" si="1"/>
         <v>1821</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="32">
         <v>5</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="63" t="s">
+      <c r="F10" s="98"/>
+      <c r="G10" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="43">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="115">
         <f t="shared" si="2"/>
         <v>1820</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="116">
         <f t="shared" si="0"/>
         <v>1821</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="117">
         <f t="shared" si="1"/>
         <v>1825</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
     </row>
-    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="43">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="115">
         <f t="shared" si="2"/>
         <v>1824</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="116">
         <f t="shared" si="0"/>
         <v>1825</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="117">
         <f t="shared" si="1"/>
         <v>1829</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="10">
         <v>6</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="29"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="25"/>
     </row>
-    <row r="13" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43">
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="115">
         <f t="shared" si="2"/>
         <v>1828</v>
       </c>
-      <c r="B13" s="44">
+      <c r="B13" s="116">
         <f t="shared" si="0"/>
         <v>1829</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="117">
         <f t="shared" si="1"/>
         <v>1833</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="32">
         <v>7</v>
       </c>
-      <c r="E13" s="68" t="s">
+      <c r="E13" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="48"/>
-      <c r="G13" s="69" t="s">
+      <c r="F13" s="98"/>
+      <c r="G13" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="72" t="s">
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="121" t="s">
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="2" t="s">
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="S13" s="29"/>
+      <c r="T13" s="25"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="43">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="115">
         <f t="shared" si="2"/>
         <v>1832</v>
       </c>
-      <c r="B14" s="44">
+      <c r="B14" s="116">
         <f t="shared" si="0"/>
         <v>1833</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="117">
         <f t="shared" si="1"/>
         <v>1837</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="78" t="s">
+      <c r="D14" s="32"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="43">
+    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="115">
         <f t="shared" si="2"/>
         <v>1836</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="116">
         <f t="shared" si="0"/>
         <v>1837</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="117">
         <f t="shared" si="1"/>
         <v>1841</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="10">
         <v>8</v>
       </c>
-      <c r="E15" s="81" t="s">
+      <c r="E15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="82"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="110"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="43">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="115">
         <f t="shared" si="2"/>
         <v>1840</v>
       </c>
-      <c r="B16" s="44">
+      <c r="B16" s="116">
         <f t="shared" si="0"/>
         <v>1841</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="117">
         <f t="shared" si="1"/>
         <v>1845</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="83" t="s">
+      <c r="E16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="84" t="s">
+      <c r="F16" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="75"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="110"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="122" t="s">
+        <v>39</v>
+      </c>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="43">
+    <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="115">
         <f t="shared" si="2"/>
         <v>1844</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="116">
         <f t="shared" si="0"/>
         <v>1845</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="117">
         <f t="shared" si="1"/>
         <v>1849</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="10">
         <v>11</v>
       </c>
-      <c r="E17" s="85" t="s">
+      <c r="E17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="45"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="4" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="N17" s="87"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="123"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
     </row>
-    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="43">
+    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="115">
         <f t="shared" si="2"/>
         <v>1848</v>
       </c>
-      <c r="B18" s="44">
+      <c r="B18" s="116">
         <f t="shared" si="0"/>
         <v>1849</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="117">
         <f t="shared" si="1"/>
         <v>1853</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="83" t="s">
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="88" t="s">
+      <c r="F18" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="75"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="3"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="125" t="s">
+        <v>41</v>
+      </c>
+      <c r="R18" s="124"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="26"/>
     </row>
-    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43">
+    <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="115">
         <f t="shared" si="2"/>
         <v>1852</v>
       </c>
-      <c r="B19" s="44">
+      <c r="B19" s="116">
         <f t="shared" si="0"/>
         <v>1853</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="117">
         <f t="shared" si="1"/>
         <v>1857</v>
       </c>
-      <c r="D19" s="49">
+      <c r="D19" s="10">
         <v>14</v>
       </c>
-      <c r="E19" s="81" t="s">
+      <c r="E19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="91"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="120" t="s">
+      <c r="F19" s="19"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="125" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="128"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="43">
+    <row r="20" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="115">
         <f t="shared" si="2"/>
         <v>1856</v>
       </c>
-      <c r="B20" s="44">
+      <c r="B20" s="116">
         <f t="shared" si="0"/>
         <v>1857</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="117">
         <f t="shared" si="1"/>
         <v>1861</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="10">
         <v>15</v>
       </c>
-      <c r="E20" s="81" t="s">
+      <c r="E20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="82"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="2" t="s">
+      <c r="F20" s="15"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="126"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="128"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43">
+    <row r="21" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="115">
         <f t="shared" si="2"/>
         <v>1860</v>
       </c>
-      <c r="B21" s="44">
+      <c r="B21" s="116">
         <f t="shared" si="0"/>
         <v>1861</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="117">
         <f t="shared" si="1"/>
         <v>1865</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="94" t="s">
+      <c r="E21" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="95" t="s">
+      <c r="F21" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11" t="s">
+      <c r="H21" s="52"/>
+      <c r="I21" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="96" t="s">
+      <c r="J21" s="53"/>
+      <c r="K21" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="97"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="98"/>
-      <c r="O21" s="99" t="s">
-        <v>39</v>
-      </c>
-      <c r="P21" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q21" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="R21" s="2" t="s">
+      <c r="L21" s="87"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="121" t="s">
+        <v>57</v>
+      </c>
+      <c r="P21" s="127"/>
+      <c r="Q21" s="124"/>
+      <c r="R21" s="129"/>
+      <c r="S21" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="S21" s="29"/>
+      <c r="T21" s="25"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="43">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="115">
         <f t="shared" si="2"/>
         <v>1864</v>
       </c>
-      <c r="B22" s="44">
+      <c r="B22" s="116">
         <f t="shared" si="0"/>
         <v>1865</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="117">
         <f t="shared" si="1"/>
         <v>1869</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="75" t="s">
+      <c r="D22" s="32"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="102"/>
-      <c r="M22" s="102"/>
-      <c r="N22" s="103"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="2" t="s">
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="91"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="43">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="115">
         <f t="shared" si="2"/>
         <v>1868</v>
       </c>
-      <c r="B23" s="44">
+      <c r="B23" s="116">
         <f t="shared" si="0"/>
         <v>1869</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C23" s="117">
         <f t="shared" si="1"/>
         <v>1873</v>
       </c>
-      <c r="D23" s="46">
+      <c r="D23" s="32">
         <v>18</v>
       </c>
-      <c r="E23" s="94" t="s">
+      <c r="E23" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="104"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="102"/>
-      <c r="M23" s="102"/>
-      <c r="N23" s="103"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
     </row>
-    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="105">
+    <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="118">
         <f t="shared" si="2"/>
         <v>1872</v>
       </c>
-      <c r="B24" s="106">
+      <c r="B24" s="119">
         <f t="shared" si="0"/>
         <v>1873</v>
       </c>
-      <c r="C24" s="107">
+      <c r="C24" s="120">
         <f t="shared" si="1"/>
         <v>1877</v>
       </c>
-      <c r="D24" s="108"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="115"/>
-      <c r="M24" s="115"/>
-      <c r="N24" s="116"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="54">
     <mergeCell ref="S1:S2"/>
-    <mergeCell ref="S6:S18"/>
-    <mergeCell ref="S3:S5"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="S22:S24"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="G3:N4"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="O1:Q2"/>
+    <mergeCell ref="S3:S12"/>
+    <mergeCell ref="S13:S20"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="Q18:Q21"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="K5:N9"/>
+    <mergeCell ref="K14:N16"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="O1:R2"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E6:E7"/>
@@ -2544,24 +2600,32 @@
     <mergeCell ref="G13:J20"/>
     <mergeCell ref="G10:N12"/>
     <mergeCell ref="G5:J9"/>
-    <mergeCell ref="E23:E24"/>
     <mergeCell ref="G22:J24"/>
     <mergeCell ref="K17:L20"/>
     <mergeCell ref="M17:N20"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="G3:N4"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E23:E24"/>
     <mergeCell ref="K21:N24"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="R21:R24"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="K5:N9"/>
-    <mergeCell ref="K14:N16"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="R3:R12"/>
-    <mergeCell ref="R13:R20"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="T6:T18"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="T22:T24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Presidential Timeline.xlsx
+++ b/Presidential Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\khora\Documents\GitHub\APUSH-Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D2F04F-6032-454B-98EE-397F736850BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09DB35C-B5E5-4CFE-A319-223435056DEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{ED6EDC44-F4A8-46AA-B4C9-693CA238D22E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>Term</t>
   </si>
@@ -126,9 +126,6 @@
     <t>Federalists</t>
   </si>
   <si>
-    <t>Democratic-Republicans ("Era of Good Feelings")</t>
-  </si>
-  <si>
     <t>Main Parties</t>
   </si>
   <si>
@@ -205,6 +202,12 @@
   </si>
   <si>
     <t>Constitutional Union</t>
+  </si>
+  <si>
+    <t>Presidential Policies</t>
+  </si>
+  <si>
+    <t>Democratic-Republicans (Era of Good Feelings)</t>
   </si>
 </sst>
 </file>
@@ -969,7 +972,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -992,9 +995,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1031,8 +1031,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1067,6 +1112,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1092,14 +1191,95 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1139,15 +1319,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1178,184 +1349,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1684,10 +1699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0533EE4-0E4C-457B-A0B9-30036464F7A8}">
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17:N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1699,51 +1714,56 @@
     <col min="5" max="5" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="14" width="7.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" style="31" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="31" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="22" t="s">
-        <v>50</v>
-      </c>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="V1" s="33"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
@@ -1753,29 +1773,31 @@
       <c r="C2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="37" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38" t="s">
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="23"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="35"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1789</v>
       </c>
@@ -1787,791 +1809,791 @@
         <f>B3+4</f>
         <v>1794</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="45">
         <v>1</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" s="22" t="s">
-        <v>52</v>
+      <c r="F3" s="126"/>
+      <c r="G3" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="36" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="115">
+    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
         <v>1792</v>
       </c>
-      <c r="B4" s="116">
+      <c r="B4" s="22">
         <f t="shared" ref="B4:B24" si="0">A4+1</f>
         <v>1793</v>
       </c>
-      <c r="C4" s="117">
+      <c r="C4" s="23">
         <f t="shared" ref="C4:C24" si="1">B4+4</f>
         <v>1797</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="27"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="41"/>
     </row>
-    <row r="5" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="115">
+    <row r="5" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21">
         <f>A4+4</f>
         <v>1796</v>
       </c>
-      <c r="B5" s="116">
+      <c r="B5" s="22">
         <f t="shared" si="0"/>
         <v>1797</v>
       </c>
-      <c r="C5" s="117">
+      <c r="C5" s="23">
         <f t="shared" si="1"/>
         <v>1801</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>2</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="99" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="120" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="23"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="37"/>
     </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="115">
-        <f t="shared" ref="A6:A45" si="2">A5+4</f>
+    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <f t="shared" ref="A6:A24" si="2">A5+4</f>
         <v>1800</v>
       </c>
-      <c r="B6" s="116">
+      <c r="B6" s="22">
         <f t="shared" si="0"/>
         <v>1801</v>
       </c>
-      <c r="C6" s="117">
+      <c r="C6" s="23">
         <f t="shared" si="1"/>
         <v>1805</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="46">
         <v>3</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="98"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="24" t="s">
-        <v>51</v>
+      <c r="F6" s="127"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="38" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="115">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
         <f t="shared" si="2"/>
         <v>1804</v>
       </c>
-      <c r="B7" s="116">
+      <c r="B7" s="22">
         <f t="shared" si="0"/>
         <v>1805</v>
       </c>
-      <c r="C7" s="117">
+      <c r="C7" s="23">
         <f t="shared" si="1"/>
         <v>1809</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="115">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
         <f t="shared" si="2"/>
         <v>1808</v>
       </c>
-      <c r="B8" s="116">
+      <c r="B8" s="22">
         <f t="shared" si="0"/>
         <v>1809</v>
       </c>
-      <c r="C8" s="117">
+      <c r="C8" s="23">
         <f t="shared" si="1"/>
         <v>1813</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="46">
         <v>4</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="98"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="115">
+    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
         <f t="shared" si="2"/>
         <v>1812</v>
       </c>
-      <c r="B9" s="116">
+      <c r="B9" s="22">
         <f t="shared" si="0"/>
         <v>1813</v>
       </c>
-      <c r="C9" s="117">
+      <c r="C9" s="23">
         <f t="shared" si="1"/>
         <v>1817</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="115">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
         <f t="shared" si="2"/>
         <v>1816</v>
       </c>
-      <c r="B10" s="116">
+      <c r="B10" s="22">
         <f t="shared" si="0"/>
         <v>1817</v>
       </c>
-      <c r="C10" s="117">
+      <c r="C10" s="23">
         <f t="shared" si="1"/>
         <v>1821</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="46">
         <v>5</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="98"/>
-      <c r="G10" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="116" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="115">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
         <f t="shared" si="2"/>
         <v>1820</v>
       </c>
-      <c r="B11" s="116">
+      <c r="B11" s="22">
         <f t="shared" si="0"/>
         <v>1821</v>
       </c>
-      <c r="C11" s="117">
+      <c r="C11" s="23">
         <f t="shared" si="1"/>
         <v>1825</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
     </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="115">
+    <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21">
         <f t="shared" si="2"/>
         <v>1824</v>
       </c>
-      <c r="B12" s="116">
+      <c r="B12" s="22">
         <f t="shared" si="0"/>
         <v>1825</v>
       </c>
-      <c r="C12" s="117">
+      <c r="C12" s="23">
         <f t="shared" si="1"/>
         <v>1829</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>6</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="25"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="118"/>
+      <c r="N12" s="119"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="39"/>
     </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="115">
+    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21">
         <f t="shared" si="2"/>
         <v>1828</v>
       </c>
-      <c r="B13" s="116">
+      <c r="B13" s="22">
         <f t="shared" si="0"/>
         <v>1829</v>
       </c>
-      <c r="C13" s="117">
+      <c r="C13" s="23">
         <f t="shared" si="1"/>
         <v>1833</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="46">
         <v>7</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="98"/>
-      <c r="G13" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="111" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="112"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="T13" s="25"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="T13" s="39"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="115">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
         <f t="shared" si="2"/>
         <v>1832</v>
       </c>
-      <c r="B14" s="116">
+      <c r="B14" s="22">
         <f t="shared" si="0"/>
         <v>1833</v>
       </c>
-      <c r="C14" s="117">
+      <c r="C14" s="23">
         <f t="shared" si="1"/>
         <v>1837</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="108" t="s">
-        <v>38</v>
-      </c>
-      <c r="L14" s="109"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
     </row>
-    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="115">
+    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21">
         <f t="shared" si="2"/>
         <v>1836</v>
       </c>
-      <c r="B15" s="116">
+      <c r="B15" s="22">
         <f t="shared" si="0"/>
         <v>1837</v>
       </c>
-      <c r="C15" s="117">
+      <c r="C15" s="23">
         <f t="shared" si="1"/>
         <v>1841</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>8</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="109"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="110"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="115">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="21">
         <f t="shared" si="2"/>
         <v>1840</v>
       </c>
-      <c r="B16" s="116">
+      <c r="B16" s="22">
         <f t="shared" si="0"/>
         <v>1841</v>
       </c>
-      <c r="C16" s="117">
+      <c r="C16" s="23">
         <f t="shared" si="1"/>
         <v>1845</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="114" t="s">
+      <c r="F16" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="122" t="s">
-        <v>39</v>
-      </c>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="133" t="s">
+        <v>38</v>
+      </c>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
     </row>
     <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="115">
+      <c r="A17" s="21">
         <f t="shared" si="2"/>
         <v>1844</v>
       </c>
-      <c r="B17" s="116">
+      <c r="B17" s="22">
         <f t="shared" si="0"/>
         <v>1845</v>
       </c>
-      <c r="C17" s="117">
+      <c r="C17" s="23">
         <f t="shared" si="1"/>
         <v>1849</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>11</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="L17" s="75"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="123"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="54"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="131"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
     </row>
     <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="115">
+      <c r="A18" s="21">
         <f t="shared" si="2"/>
         <v>1848</v>
       </c>
-      <c r="B18" s="116">
+      <c r="B18" s="22">
         <f t="shared" si="0"/>
         <v>1849</v>
       </c>
-      <c r="C18" s="117">
+      <c r="C18" s="23">
         <f t="shared" si="1"/>
         <v>1853</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="57"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="125" t="s">
-        <v>41</v>
-      </c>
-      <c r="R18" s="124"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="26"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="R18" s="132"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="40"/>
     </row>
     <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="115">
+      <c r="A19" s="21">
         <f t="shared" si="2"/>
         <v>1852</v>
       </c>
-      <c r="B19" s="116">
+      <c r="B19" s="22">
         <f t="shared" si="0"/>
         <v>1853</v>
       </c>
-      <c r="C19" s="117">
+      <c r="C19" s="23">
         <f t="shared" si="1"/>
         <v>1857</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>14</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="125" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q19" s="123"/>
-      <c r="R19" s="128"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="20" t="s">
-        <v>54</v>
+      <c r="F19" s="18"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="131"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="19" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="115">
+      <c r="A20" s="21">
         <f t="shared" si="2"/>
         <v>1856</v>
       </c>
-      <c r="B20" s="116">
+      <c r="B20" s="22">
         <f t="shared" si="0"/>
         <v>1857</v>
       </c>
-      <c r="C20" s="117">
+      <c r="C20" s="23">
         <f t="shared" si="1"/>
         <v>1861</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>15</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="85"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="126"/>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="128"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="24" t="s">
-        <v>53</v>
+      <c r="F20" s="14"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="129"/>
+      <c r="Q20" s="131"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="38" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="115">
+      <c r="A21" s="21">
         <f t="shared" si="2"/>
         <v>1860</v>
       </c>
-      <c r="B21" s="116">
+      <c r="B21" s="22">
         <f t="shared" si="0"/>
         <v>1861</v>
       </c>
-      <c r="C21" s="117">
+      <c r="C21" s="23">
         <f t="shared" si="1"/>
         <v>1865</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="F21" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="110" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="J21" s="53"/>
-      <c r="K21" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="L21" s="87"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="121" t="s">
-        <v>57</v>
-      </c>
-      <c r="P21" s="127"/>
-      <c r="Q21" s="124"/>
-      <c r="R21" s="129"/>
-      <c r="S21" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="T21" s="25"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="P21" s="130"/>
+      <c r="Q21" s="132"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="T21" s="39"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="115">
+      <c r="A22" s="21">
         <f t="shared" si="2"/>
         <v>1864</v>
       </c>
-      <c r="B22" s="116">
+      <c r="B22" s="22">
         <f t="shared" si="0"/>
         <v>1865</v>
       </c>
-      <c r="C22" s="117">
+      <c r="C22" s="23">
         <f t="shared" si="1"/>
         <v>1869</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="91"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="24" t="s">
-        <v>55</v>
+      <c r="D22" s="46"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="81"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="38" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="115">
+      <c r="A23" s="21">
         <f t="shared" si="2"/>
         <v>1868</v>
       </c>
-      <c r="B23" s="116">
+      <c r="B23" s="22">
         <f t="shared" si="0"/>
         <v>1869</v>
       </c>
-      <c r="C23" s="117">
+      <c r="C23" s="23">
         <f t="shared" si="1"/>
         <v>1873</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="46">
         <v>18</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="95"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
     </row>
     <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="118">
+      <c r="A24" s="24">
         <f t="shared" si="2"/>
         <v>1872</v>
       </c>
-      <c r="B24" s="119">
+      <c r="B24" s="25">
         <f t="shared" si="0"/>
         <v>1873</v>
       </c>
-      <c r="C24" s="120">
+      <c r="C24" s="26">
         <f t="shared" si="1"/>
         <v>1877</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="55">
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="S3:S12"/>
     <mergeCell ref="S13:S20"/>
@@ -2579,14 +2601,6 @@
     <mergeCell ref="Q18:Q21"/>
     <mergeCell ref="R16:R18"/>
     <mergeCell ref="S21:S24"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="K5:N9"/>
-    <mergeCell ref="K14:N16"/>
-    <mergeCell ref="K13:N13"/>
     <mergeCell ref="O1:R2"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="E3:E4"/>
@@ -2600,6 +2614,26 @@
     <mergeCell ref="G13:J20"/>
     <mergeCell ref="G10:N12"/>
     <mergeCell ref="G5:J9"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="K21:N24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="K5:N9"/>
+    <mergeCell ref="K14:N16"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="T22:T24"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="G22:J24"/>
     <mergeCell ref="K17:L20"/>
     <mergeCell ref="M17:N20"/>
@@ -2610,22 +2644,11 @@
     <mergeCell ref="G3:N4"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="K21:N24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="U1:V2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="T6:T18"/>
     <mergeCell ref="T3:T5"/>
     <mergeCell ref="T20:T21"/>
-    <mergeCell ref="T22:T24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Presidential Timeline.xlsx
+++ b/Presidential Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\khora\Documents\GitHub\APUSH-Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09DB35C-B5E5-4CFE-A319-223435056DEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D7458E-B9F7-437F-B947-D62D948BC2F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{ED6EDC44-F4A8-46AA-B4C9-693CA238D22E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="63">
   <si>
     <t>Term</t>
   </si>
@@ -57,9 +57,6 @@
     <t>James Monroe</t>
   </si>
   <si>
-    <t>John Q. Adams</t>
-  </si>
-  <si>
     <t>Andrew Jackson</t>
   </si>
   <si>
@@ -81,18 +78,12 @@
     <t>James Buchanan</t>
   </si>
   <si>
-    <t>Abraham Lincoln</t>
-  </si>
-  <si>
     <t>Ulysses S. Grant</t>
   </si>
   <si>
     <t>Successor</t>
   </si>
   <si>
-    <t>John Tyler</t>
-  </si>
-  <si>
     <t>Millard Fillmore</t>
   </si>
   <si>
@@ -208,13 +199,34 @@
   </si>
   <si>
     <t>Democratic-Republicans (Era of Good Feelings)</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>John Tyler*</t>
+  </si>
+  <si>
+    <t>*Anti-Jackson Democrat</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>Abraham Lincolnᴹ</t>
+  </si>
+  <si>
+    <t>John Q. Adamsᴹ</t>
+  </si>
+  <si>
+    <t>ᴹMinority President</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +236,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -972,7 +991,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1061,23 +1080,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1085,18 +1158,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1128,24 +1201,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1259,15 +1314,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1277,7 +1323,64 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1295,66 +1398,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1364,15 +1407,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1699,10 +1737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0533EE4-0E4C-457B-A0B9-30036464F7A8}">
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17:N20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,90 +1752,100 @@
     <col min="5" max="5" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="14" width="7.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" style="31" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="31" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="38" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="T1" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="U1" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="V1" s="33"/>
+      <c r="F1" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="W1" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="X1" s="36"/>
     </row>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="35"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="36"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1789</v>
       </c>
@@ -1809,35 +1857,36 @@
         <f>B3+4</f>
         <v>1794</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="63">
         <v>1</v>
       </c>
-      <c r="E3" s="103" t="s">
+      <c r="E3" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="126"/>
-      <c r="G3" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="68"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="80"/>
       <c r="O3" s="29"/>
       <c r="P3" s="29"/>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
-      <c r="S3" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" s="36" t="s">
-        <v>51</v>
-      </c>
+      <c r="S3" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" s="34"/>
     </row>
-    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
         <v>1792</v>
       </c>
@@ -1849,25 +1898,26 @@
         <f t="shared" ref="C4:C24" si="1">B4+4</f>
         <v>1797</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="73"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="85"/>
       <c r="O4" s="29"/>
       <c r="P4" s="29"/>
       <c r="Q4" s="29"/>
       <c r="R4" s="29"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="41"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="57"/>
+      <c r="W4" s="34"/>
     </row>
-    <row r="5" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <f>A4+4</f>
         <v>1796</v>
@@ -1887,26 +1937,27 @@
         <v>4</v>
       </c>
       <c r="F5" s="11"/>
-      <c r="G5" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="89"/>
+      <c r="G5" s="112" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="101"/>
       <c r="O5" s="29"/>
       <c r="P5" s="29"/>
       <c r="Q5" s="29"/>
       <c r="R5" s="29"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="37"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="55"/>
+      <c r="W5" s="34"/>
     </row>
-    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <f t="shared" ref="A6:A24" si="2">A5+4</f>
         <v>1800</v>
@@ -1919,31 +1970,32 @@
         <f t="shared" si="1"/>
         <v>1805</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="64">
         <v>3</v>
       </c>
-      <c r="E6" s="105" t="s">
+      <c r="E6" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="127"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="92"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="104"/>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
       <c r="Q6" s="29"/>
       <c r="R6" s="29"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="38" t="s">
-        <v>50</v>
-      </c>
+      <c r="S6" s="56"/>
+      <c r="T6" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="W6" s="31"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <f t="shared" si="2"/>
         <v>1804</v>
@@ -1956,25 +2008,26 @@
         <f t="shared" si="1"/>
         <v>1809</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="92"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="104"/>
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
       <c r="Q7" s="29"/>
       <c r="R7" s="29"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="W7" s="31"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <f t="shared" si="2"/>
         <v>1808</v>
@@ -1987,29 +2040,30 @@
         <f t="shared" si="1"/>
         <v>1813</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="64">
         <v>4</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="127"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="92"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="104"/>
       <c r="O8" s="29"/>
       <c r="P8" s="29"/>
       <c r="Q8" s="29"/>
       <c r="R8" s="29"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="W8" s="31"/>
     </row>
-    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <f t="shared" si="2"/>
         <v>1812</v>
@@ -2022,25 +2076,26 @@
         <f t="shared" si="1"/>
         <v>1817</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="95"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="107"/>
       <c r="O9" s="29"/>
       <c r="P9" s="29"/>
       <c r="Q9" s="29"/>
       <c r="R9" s="29"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="W9" s="31"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <f t="shared" si="2"/>
         <v>1816</v>
@@ -2053,31 +2108,32 @@
         <f t="shared" si="1"/>
         <v>1821</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="64">
         <v>5</v>
       </c>
-      <c r="E10" s="106" t="s">
+      <c r="E10" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="127"/>
-      <c r="G10" s="116" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="117"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="127" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="128"/>
       <c r="O10" s="29"/>
       <c r="P10" s="29"/>
       <c r="Q10" s="29"/>
       <c r="R10" s="29"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="W10" s="31"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <f t="shared" si="2"/>
         <v>1820</v>
@@ -2090,25 +2146,26 @@
         <f t="shared" si="1"/>
         <v>1825</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="116"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="117"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="127"/>
+      <c r="L11" s="127"/>
+      <c r="M11" s="127"/>
+      <c r="N11" s="128"/>
       <c r="O11" s="29"/>
       <c r="P11" s="29"/>
       <c r="Q11" s="29"/>
       <c r="R11" s="29"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="W11" s="31"/>
     </row>
-    <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <f t="shared" si="2"/>
         <v>1824</v>
@@ -2125,25 +2182,28 @@
         <v>6</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="F12" s="11"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="119"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="129"/>
+      <c r="N12" s="130"/>
       <c r="O12" s="29"/>
       <c r="P12" s="29"/>
       <c r="Q12" s="29"/>
       <c r="R12" s="29"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="39"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="56"/>
+      <c r="W12" s="140" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
         <f t="shared" si="2"/>
         <v>1828</v>
@@ -2156,37 +2216,38 @@
         <f t="shared" si="1"/>
         <v>1833</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="64">
         <v>7</v>
       </c>
-      <c r="E13" s="107" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="127"/>
-      <c r="G13" s="113" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="99" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="30" t="s">
-        <v>55</v>
+      <c r="E13" s="135" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="111"/>
+      <c r="G13" s="124" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="125"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="108" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="43" t="s">
+        <v>52</v>
       </c>
       <c r="P13" s="29"/>
       <c r="Q13" s="29"/>
       <c r="R13" s="29"/>
-      <c r="S13" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="T13" s="39"/>
+      <c r="S13" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="T13" s="56"/>
+      <c r="W13" s="31"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <f t="shared" si="2"/>
         <v>1832</v>
@@ -2199,27 +2260,28 @@
         <f t="shared" si="1"/>
         <v>1837</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" s="97"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="29"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="45"/>
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
       <c r="R14" s="29"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="W14" s="31"/>
     </row>
-    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <f t="shared" si="2"/>
         <v>1836</v>
@@ -2236,25 +2298,26 @@
         <v>8</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" s="14"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="98"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="51"/>
       <c r="O15" s="29"/>
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
       <c r="R15" s="29"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="W15" s="31"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <f t="shared" si="2"/>
         <v>1840</v>
@@ -2268,32 +2331,39 @@
         <v>1845</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="98"/>
+        <v>57</v>
+      </c>
+      <c r="G16" s="65"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="38"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="33"/>
       <c r="O16" s="29"/>
       <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="133" t="s">
-        <v>38</v>
-      </c>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
+      <c r="Q16" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="R16" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="W16" s="31" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <f t="shared" si="2"/>
         <v>1844</v>
@@ -2310,27 +2380,26 @@
         <v>11</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="8"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="54"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="72"/>
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="131"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="W17" s="31"/>
     </row>
-    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21">
         <f t="shared" si="2"/>
         <v>1848</v>
@@ -2344,32 +2413,31 @@
         <v>1853</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="47"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="62"/>
+        <v>17</v>
+      </c>
+      <c r="G18" s="65"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="74"/>
       <c r="O18" s="29"/>
       <c r="P18" s="29"/>
-      <c r="Q18" s="128" t="s">
-        <v>40</v>
-      </c>
-      <c r="R18" s="132"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="40"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="53"/>
+      <c r="W18" s="31"/>
     </row>
-    <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21">
         <f t="shared" si="2"/>
         <v>1852</v>
@@ -2386,29 +2454,30 @@
         <v>14</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="18"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="62"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="74"/>
       <c r="O19" s="29"/>
-      <c r="P19" s="128" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q19" s="131"/>
+      <c r="P19" s="136" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="44"/>
       <c r="R19" s="28"/>
-      <c r="S19" s="39"/>
+      <c r="S19" s="56"/>
       <c r="T19" s="19" t="s">
-        <v>53</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="W19" s="35"/>
     </row>
-    <row r="20" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
         <f t="shared" si="2"/>
         <v>1856</v>
@@ -2425,27 +2494,28 @@
         <v>15</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="14"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="64"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="76"/>
       <c r="O20" s="29"/>
-      <c r="P20" s="129"/>
-      <c r="Q20" s="131"/>
+      <c r="P20" s="137"/>
+      <c r="Q20" s="44"/>
       <c r="R20" s="28"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="38" t="s">
-        <v>52</v>
-      </c>
+      <c r="S20" s="53"/>
+      <c r="T20" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="W20" s="31"/>
     </row>
-    <row r="21" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21">
         <f t="shared" si="2"/>
         <v>1860</v>
@@ -2458,41 +2528,42 @@
         <f t="shared" si="1"/>
         <v>1865</v>
       </c>
-      <c r="D21" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="108" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="110" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="111"/>
-      <c r="I21" s="111" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" s="112"/>
-      <c r="K21" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="78"/>
+      <c r="D21" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="119" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="121" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="122"/>
+      <c r="I21" s="122" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="123"/>
+      <c r="K21" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="90"/>
       <c r="O21" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="P21" s="130"/>
-      <c r="Q21" s="132"/>
+        <v>53</v>
+      </c>
+      <c r="P21" s="138"/>
+      <c r="Q21" s="45"/>
       <c r="R21" s="28"/>
-      <c r="S21" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="T21" s="39"/>
+      <c r="S21" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="T21" s="56"/>
+      <c r="W21" s="31"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <f t="shared" si="2"/>
         <v>1864</v>
@@ -2505,28 +2576,29 @@
         <f t="shared" si="1"/>
         <v>1869</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="81"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="93"/>
       <c r="P22" s="29"/>
       <c r="Q22" s="29"/>
       <c r="R22" s="29"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="38" t="s">
-        <v>54</v>
-      </c>
+      <c r="S22" s="56"/>
+      <c r="T22" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="W22" s="31"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <f t="shared" si="2"/>
         <v>1868</v>
@@ -2539,29 +2611,30 @@
         <f t="shared" si="1"/>
         <v>1873</v>
       </c>
-      <c r="D23" s="46">
+      <c r="D23" s="64">
         <v>18</v>
       </c>
-      <c r="E23" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="85"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="81"/>
+      <c r="E23" s="86" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="97"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="93"/>
       <c r="O23" s="29"/>
       <c r="P23" s="29"/>
       <c r="Q23" s="29"/>
       <c r="R23" s="29"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="W23" s="31"/>
     </row>
-    <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <f t="shared" si="2"/>
         <v>1872</v>
@@ -2574,60 +2647,58 @@
         <f t="shared" si="1"/>
         <v>1877</v>
       </c>
-      <c r="D24" s="65"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="84"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="96"/>
       <c r="O24" s="29"/>
       <c r="P24" s="29"/>
       <c r="Q24" s="29"/>
       <c r="R24" s="29"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="W24" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="59">
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="S3:S12"/>
     <mergeCell ref="S13:S20"/>
     <mergeCell ref="P19:P21"/>
-    <mergeCell ref="Q18:Q21"/>
     <mergeCell ref="R16:R18"/>
     <mergeCell ref="S21:S24"/>
     <mergeCell ref="O1:R2"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D21:D22"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="G13:J20"/>
-    <mergeCell ref="G10:N12"/>
-    <mergeCell ref="G5:J9"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="K21:N24"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="K5:N9"/>
-    <mergeCell ref="K14:N16"/>
     <mergeCell ref="K13:N13"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:J9"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G10:N12"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
     <mergeCell ref="T22:T24"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:D2"/>
@@ -2635,7 +2706,6 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="G22:J24"/>
-    <mergeCell ref="K17:L20"/>
     <mergeCell ref="M17:N20"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="G1:N1"/>
@@ -2644,11 +2714,19 @@
     <mergeCell ref="G3:N4"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D13:D14"/>
-    <mergeCell ref="U1:V2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="K16:L20"/>
+    <mergeCell ref="Q16:Q21"/>
+    <mergeCell ref="K14:N15"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="T6:T18"/>
     <mergeCell ref="T3:T5"/>
     <mergeCell ref="T20:T21"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Presidential Timeline.xlsx
+++ b/Presidential Timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\khora\Documents\GitHub\APUSH-Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D7458E-B9F7-437F-B947-D62D948BC2F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C22253-6FF7-452A-9E04-19ED1FE5A5E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{ED6EDC44-F4A8-46AA-B4C9-693CA238D22E}"/>
+    <workbookView xWindow="20370" yWindow="-5370" windowWidth="24240" windowHeight="13140" xr2:uid="{ED6EDC44-F4A8-46AA-B4C9-693CA238D22E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
   <si>
     <t>Term</t>
   </si>
@@ -201,9 +201,6 @@
     <t>Democratic-Republicans (Era of Good Feelings)</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>John Tyler*</t>
   </si>
   <si>
@@ -219,7 +216,94 @@
     <t>John Q. Adamsᴹ</t>
   </si>
   <si>
-    <t>ᴹMinority President</t>
+    <t>Union Party</t>
+  </si>
+  <si>
+    <t>War Democrats</t>
+  </si>
+  <si>
+    <t>Rutherford Hayes</t>
+  </si>
+  <si>
+    <t>James Garfield</t>
+  </si>
+  <si>
+    <t>Chester Arthur</t>
+  </si>
+  <si>
+    <t>Grover Cleveland</t>
+  </si>
+  <si>
+    <t>Benjamin Harrison</t>
+  </si>
+  <si>
+    <t>William McKinley</t>
+  </si>
+  <si>
+    <t>Theodore Roosevelt</t>
+  </si>
+  <si>
+    <t>20, 21</t>
+  </si>
+  <si>
+    <t>Fourth</t>
+  </si>
+  <si>
+    <t>Six (1865-1898)</t>
+  </si>
+  <si>
+    <t>6 &amp; 7</t>
+  </si>
+  <si>
+    <t>Seven (1890-1945)</t>
+  </si>
+  <si>
+    <t>William Taft</t>
+  </si>
+  <si>
+    <t>Woodrow Wilson</t>
+  </si>
+  <si>
+    <t>Warren G Harding</t>
+  </si>
+  <si>
+    <t>Calvin Coolidge</t>
+  </si>
+  <si>
+    <t>Herbert Hoover</t>
+  </si>
+  <si>
+    <t>Franklin D. Roosevelt</t>
+  </si>
+  <si>
+    <t>29, 30</t>
+  </si>
+  <si>
+    <t>Progressive</t>
+  </si>
+  <si>
+    <t>Socialist</t>
+  </si>
+  <si>
+    <t>Populist</t>
+  </si>
+  <si>
+    <t>*Elected by the House through the Compromise of 1877</t>
+  </si>
+  <si>
+    <t>Pro-corporation</t>
+  </si>
+  <si>
+    <t>ᴹMinority President, *Elected by the House in the Corrupt Bargain</t>
+  </si>
+  <si>
+    <t>Election Notes</t>
+  </si>
+  <si>
+    <t>*Elected by House, 12th Amendment Passed</t>
+  </si>
+  <si>
+    <t>Moderate president, let good civil servants keep their jobs, kept the National Bank</t>
   </si>
 </sst>
 </file>
@@ -326,7 +410,7 @@
       </gradientFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -702,21 +786,6 @@
       <left style="dashDotDot">
         <color indexed="64"/>
       </left>
-      <right style="dashDotDot">
-        <color indexed="64"/>
-      </right>
-      <top style="dashDotDot">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashDotDot">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -876,19 +945,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -949,6 +1005,91 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDotDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDotDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashDotDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDotDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDotDot">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashDotDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDotDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDotDot">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashDotDot">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -956,101 +1097,142 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1098,27 +1280,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1144,9 +1404,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1159,9 +1416,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1179,13 +1433,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1194,223 +1547,175 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1419,11 +1724,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF6464FF"/>
-      <color rgb="FFFF66FF"/>
       <color rgb="FF00FF99"/>
       <color rgb="FFFF6464"/>
+      <color rgb="FF6464FF"/>
       <color rgb="FFFFFF99"/>
+      <color rgb="FFFF66FF"/>
       <color rgb="FFD77DFF"/>
       <color rgb="FFA7A7FF"/>
       <color rgb="FFFFAFFF"/>
@@ -1737,10 +2042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0533EE4-0E4C-457B-A0B9-30036464F7A8}">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:X48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1752,21 +2057,21 @@
     <col min="5" max="5" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="14" width="7.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" style="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="34.28515625" customWidth="1"/>
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="78"/>
       <c r="D1" s="52" t="s">
         <v>1</v>
       </c>
@@ -1776,927 +2081,1545 @@
       <c r="F1" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="78" t="s">
+      <c r="G1" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="78" t="s">
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="80"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="88"/>
       <c r="S1" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="54" t="s">
+      <c r="T1" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="58" t="s">
+      <c r="U1" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="V1" s="58" t="s">
-        <v>59</v>
+      <c r="V1" s="74" t="s">
+        <v>58</v>
       </c>
       <c r="W1" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="X1" s="36"/>
+        <v>88</v>
+      </c>
+      <c r="X1" s="54"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="81" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82" t="s">
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="36"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="54"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="28">
         <v>1789</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="29">
         <f>A3+1</f>
         <v>1790</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="30">
         <f>B3+4</f>
         <v>1794</v>
       </c>
-      <c r="D3" s="63">
+      <c r="D3" s="79">
         <v>1</v>
       </c>
-      <c r="E3" s="131" t="s">
+      <c r="E3" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="118"/>
-      <c r="G3" s="79" t="s">
+      <c r="F3" s="100"/>
+      <c r="G3" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
       <c r="S3" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="54" t="s">
+      <c r="T3" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="W3" s="34"/>
+      <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
+      <c r="A4" s="13">
         <v>1792</v>
       </c>
-      <c r="B4" s="22">
-        <f t="shared" ref="B4:B24" si="0">A4+1</f>
+      <c r="B4" s="14">
+        <f t="shared" ref="B4:B31" si="0">A4+1</f>
         <v>1793</v>
       </c>
-      <c r="C4" s="23">
-        <f t="shared" ref="C4:C24" si="1">B4+4</f>
+      <c r="C4" s="15">
+        <f t="shared" ref="C4:C32" si="1">B4+4</f>
         <v>1797</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="57"/>
-      <c r="W4" s="34"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="73"/>
+      <c r="W4" s="26"/>
     </row>
     <row r="5" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="A5" s="13">
         <f>A4+4</f>
         <v>1796</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="14">
         <f t="shared" si="0"/>
         <v>1797</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="15">
         <f t="shared" si="1"/>
         <v>1801</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <v>2</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="112" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="99" t="s">
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="55"/>
-      <c r="W5" s="34"/>
-    </row>
-    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
-        <f t="shared" ref="A6:A24" si="2">A5+4</f>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="72"/>
+      <c r="W5" s="26"/>
+    </row>
+    <row r="6" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <f t="shared" ref="A6:A48" si="2">A5+4</f>
         <v>1800</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="14">
         <f t="shared" si="0"/>
         <v>1801</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="15">
         <f t="shared" si="1"/>
         <v>1805</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="51">
         <v>3</v>
       </c>
-      <c r="E6" s="133" t="s">
+      <c r="E6" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="111"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="56"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="53"/>
       <c r="T6" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="W6" s="31"/>
+      <c r="U6" s="141" t="s">
+        <v>90</v>
+      </c>
+      <c r="W6" s="31" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+      <c r="A7" s="13">
         <f t="shared" si="2"/>
         <v>1804</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="14">
         <f t="shared" si="0"/>
         <v>1805</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="15">
         <f t="shared" si="1"/>
         <v>1809</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="141"/>
       <c r="W7" s="31"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+      <c r="A8" s="13">
         <f t="shared" si="2"/>
         <v>1808</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="14">
         <f t="shared" si="0"/>
         <v>1809</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="15">
         <f t="shared" si="1"/>
         <v>1813</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="51">
         <v>4</v>
       </c>
-      <c r="E8" s="133" t="s">
+      <c r="E8" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="111"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="W8" s="31"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="W8" s="23"/>
     </row>
     <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="A9" s="13">
         <f t="shared" si="2"/>
         <v>1812</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>1813</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="15">
         <f t="shared" si="1"/>
         <v>1817</v>
       </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="W9" s="31"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="129"/>
+      <c r="M9" s="129"/>
+      <c r="N9" s="130"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="W9" s="23"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="A10" s="13">
         <f t="shared" si="2"/>
         <v>1816</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>1817</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="15">
         <f t="shared" si="1"/>
         <v>1821</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="51">
         <v>5</v>
       </c>
-      <c r="E10" s="134" t="s">
+      <c r="E10" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="111"/>
-      <c r="G10" s="127" t="s">
+      <c r="F10" s="101"/>
+      <c r="G10" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="127"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="127"/>
-      <c r="N10" s="128"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="W10" s="31"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="W10" s="23"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
+      <c r="A11" s="13">
         <f t="shared" si="2"/>
         <v>1820</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="14">
         <f t="shared" si="0"/>
         <v>1821</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="15">
         <f t="shared" si="1"/>
         <v>1825</v>
       </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="127"/>
-      <c r="K11" s="127"/>
-      <c r="L11" s="127"/>
-      <c r="M11" s="127"/>
-      <c r="N11" s="128"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="W11" s="31"/>
-    </row>
-    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="D11" s="51"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="W11" s="23"/>
+    </row>
+    <row r="12" spans="1:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
         <f t="shared" si="2"/>
         <v>1824</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="14">
         <f t="shared" si="0"/>
         <v>1825</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="15">
         <f t="shared" si="1"/>
         <v>1829</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="6">
         <v>6</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="129"/>
-      <c r="N12" s="130"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="56"/>
-      <c r="W12" s="140" t="s">
-        <v>62</v>
+      <c r="E12" s="163" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="104"/>
+      <c r="N12" s="105"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="53"/>
+      <c r="W12" s="172" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="A13" s="13">
         <f t="shared" si="2"/>
         <v>1828</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>1829</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="15">
         <f t="shared" si="1"/>
         <v>1833</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="51">
         <v>7</v>
       </c>
-      <c r="E13" s="135" t="s">
+      <c r="E13" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="111"/>
-      <c r="G13" s="124" t="s">
+      <c r="F13" s="101"/>
+      <c r="G13" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="126"/>
-      <c r="K13" s="108" t="s">
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="110"/>
-      <c r="O13" s="43" t="s">
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="133"/>
+      <c r="O13" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
       <c r="S13" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="T13" s="56"/>
-      <c r="W13" s="31"/>
+      <c r="T13" s="53"/>
+      <c r="W13" s="23"/>
     </row>
     <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="A14" s="13">
         <f t="shared" si="2"/>
         <v>1832</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="14">
         <f t="shared" si="0"/>
         <v>1833</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="15">
         <f t="shared" si="1"/>
         <v>1837</v>
       </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="46" t="s">
+      <c r="D14" s="51"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="W14" s="31"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="W14" s="23"/>
     </row>
     <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
+      <c r="A15" s="13">
         <f t="shared" si="2"/>
         <v>1836</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>1837</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="15">
         <f t="shared" si="1"/>
         <v>1841</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="6">
         <v>8</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="W15" s="31"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="W15" s="23"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="21">
+      <c r="A16" s="13">
         <f t="shared" si="2"/>
         <v>1840</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>1841</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="15">
         <f t="shared" si="1"/>
         <v>1845</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="114"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="56"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="R16" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="W16" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" s="38"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="R16" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="W16" s="31" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21">
+      <c r="A17" s="13">
         <f t="shared" si="2"/>
         <v>1844</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="14">
         <f t="shared" si="0"/>
         <v>1845</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="15">
         <f t="shared" si="1"/>
         <v>1849</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="6">
         <v>11</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="W17" s="31"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="W17" s="23"/>
     </row>
     <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21">
+      <c r="A18" s="13">
         <f t="shared" si="2"/>
         <v>1848</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="14">
         <f t="shared" si="0"/>
         <v>1849</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="15">
         <f t="shared" si="1"/>
         <v>1853</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="65"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="53"/>
-      <c r="W18" s="31"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="70"/>
+      <c r="W18" s="23"/>
     </row>
     <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21">
+      <c r="A19" s="13">
         <f t="shared" si="2"/>
         <v>1852</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>1853</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="15">
         <f t="shared" si="1"/>
         <v>1857</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="6">
         <v>14</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="136" t="s">
+      <c r="F19" s="10"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="19" t="s">
+      <c r="Q19" s="62"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="W19" s="35"/>
+      <c r="W19" s="27"/>
     </row>
     <row r="20" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21">
+      <c r="A20" s="13">
         <f t="shared" si="2"/>
         <v>1856</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="14">
         <f t="shared" si="0"/>
         <v>1857</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="15">
         <f t="shared" si="1"/>
         <v>1861</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="6">
         <v>15</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="137"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="53"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="70"/>
       <c r="T20" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="W20" s="31"/>
+      <c r="W20" s="23"/>
     </row>
     <row r="21" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21">
+      <c r="A21" s="13">
         <f t="shared" si="2"/>
         <v>1860</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="14">
         <f t="shared" si="0"/>
         <v>1861</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="15">
         <f t="shared" si="1"/>
         <v>1865</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="86" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="119" t="s">
+      <c r="E21" s="168" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="121" t="s">
+      <c r="G21" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="122"/>
-      <c r="I21" s="122" t="s">
+      <c r="H21" s="108"/>
+      <c r="I21" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="123"/>
-      <c r="K21" s="88" t="s">
+      <c r="J21" s="110"/>
+      <c r="K21" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="27" t="s">
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="P21" s="138"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="28"/>
+      <c r="P21" s="120"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="20"/>
       <c r="S21" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="T21" s="56"/>
-      <c r="W21" s="31"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="21">
+      <c r="T21" s="91"/>
+      <c r="W21" s="23"/>
+    </row>
+    <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
         <f t="shared" si="2"/>
         <v>1864</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="14">
         <f t="shared" si="0"/>
         <v>1865</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="15">
         <f t="shared" si="1"/>
         <v>1869</v>
       </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="93"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="52" t="s">
+      <c r="D22" s="51"/>
+      <c r="E22" s="168"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="148"/>
+      <c r="I22" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="45"/>
+      <c r="K22" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="50"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="W22" s="31"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="21">
+      <c r="W22" s="23"/>
+    </row>
+    <row r="23" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
         <f t="shared" si="2"/>
         <v>1868</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="14">
         <f t="shared" si="0"/>
         <v>1869</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="15">
         <f t="shared" si="1"/>
         <v>1873</v>
       </c>
-      <c r="D23" s="64">
+      <c r="D23" s="51">
         <v>18</v>
       </c>
-      <c r="E23" s="86" t="s">
+      <c r="E23" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="97"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="W23" s="31"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="91"/>
+      <c r="W23" s="23"/>
     </row>
     <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="24">
+      <c r="A24" s="13">
         <f t="shared" si="2"/>
         <v>1872</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="14">
         <f t="shared" si="0"/>
         <v>1873</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="15">
         <f t="shared" si="1"/>
         <v>1877</v>
       </c>
-      <c r="D24" s="77"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="96"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="168"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
       <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="W24" s="31"/>
+      <c r="T24" s="91"/>
+      <c r="W24" s="23"/>
+    </row>
+    <row r="25" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <f t="shared" si="2"/>
+        <v>1876</v>
+      </c>
+      <c r="B25" s="14">
+        <f t="shared" si="0"/>
+        <v>1877</v>
+      </c>
+      <c r="C25" s="15">
+        <f t="shared" si="1"/>
+        <v>1881</v>
+      </c>
+      <c r="D25" s="149">
+        <v>19</v>
+      </c>
+      <c r="E25" s="136" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="135"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="40"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="143" t="s">
+        <v>72</v>
+      </c>
+      <c r="U25" s="142"/>
+      <c r="V25" t="s">
+        <v>86</v>
+      </c>
+      <c r="W25" s="173" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <f t="shared" si="2"/>
+        <v>1880</v>
+      </c>
+      <c r="B26" s="14">
+        <f t="shared" si="0"/>
+        <v>1881</v>
+      </c>
+      <c r="C26" s="15">
+        <f t="shared" si="1"/>
+        <v>1885</v>
+      </c>
+      <c r="D26" s="149" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="136" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="140" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="32"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="40"/>
+      <c r="S26" s="89"/>
+      <c r="T26" s="144"/>
+      <c r="U26" s="142"/>
+      <c r="V26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13">
+        <f t="shared" si="2"/>
+        <v>1884</v>
+      </c>
+      <c r="B27" s="14">
+        <f t="shared" si="0"/>
+        <v>1885</v>
+      </c>
+      <c r="C27" s="15">
+        <f t="shared" si="1"/>
+        <v>1889</v>
+      </c>
+      <c r="D27" s="149">
+        <v>22</v>
+      </c>
+      <c r="E27" s="138" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="135"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="40"/>
+      <c r="S27" s="89"/>
+      <c r="T27" s="145"/>
+      <c r="U27" s="142"/>
+      <c r="V27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13">
+        <f t="shared" si="2"/>
+        <v>1888</v>
+      </c>
+      <c r="B28" s="14">
+        <f t="shared" si="0"/>
+        <v>1889</v>
+      </c>
+      <c r="C28" s="15">
+        <f t="shared" si="1"/>
+        <v>1893</v>
+      </c>
+      <c r="D28" s="150">
+        <v>23</v>
+      </c>
+      <c r="E28" s="136" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="135"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="40"/>
+      <c r="S28" s="89"/>
+      <c r="T28" s="143" t="s">
+        <v>73</v>
+      </c>
+      <c r="U28" s="142"/>
+      <c r="V28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13">
+        <f t="shared" si="2"/>
+        <v>1892</v>
+      </c>
+      <c r="B29" s="14">
+        <f t="shared" si="0"/>
+        <v>1893</v>
+      </c>
+      <c r="C29" s="15">
+        <f t="shared" si="1"/>
+        <v>1897</v>
+      </c>
+      <c r="D29" s="150">
+        <v>24</v>
+      </c>
+      <c r="E29" s="138" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="135"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="157" t="s">
+        <v>84</v>
+      </c>
+      <c r="S29" s="121"/>
+      <c r="T29" s="144"/>
+      <c r="U29" s="142"/>
+      <c r="V29" s="142"/>
+    </row>
+    <row r="30" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13">
+        <f t="shared" si="2"/>
+        <v>1896</v>
+      </c>
+      <c r="B30" s="14">
+        <f t="shared" si="0"/>
+        <v>1897</v>
+      </c>
+      <c r="C30" s="15">
+        <f t="shared" si="1"/>
+        <v>1901</v>
+      </c>
+      <c r="D30" s="150">
+        <v>25</v>
+      </c>
+      <c r="E30" s="136" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="135"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="40"/>
+      <c r="S30" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="T30" s="145"/>
+      <c r="U30" s="142"/>
+      <c r="V30" s="142"/>
+    </row>
+    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <f t="shared" si="2"/>
+        <v>1900</v>
+      </c>
+      <c r="B31" s="14">
+        <f t="shared" si="0"/>
+        <v>1901</v>
+      </c>
+      <c r="C31" s="15">
+        <f t="shared" si="1"/>
+        <v>1905</v>
+      </c>
+      <c r="D31" s="151">
+        <v>26</v>
+      </c>
+      <c r="E31" s="137" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="135"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="40"/>
+      <c r="S31" s="156"/>
+      <c r="T31" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="V31" s="142"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <f t="shared" si="2"/>
+        <v>1904</v>
+      </c>
+      <c r="B32" s="14">
+        <f t="shared" ref="B32" si="3">A32+1</f>
+        <v>1905</v>
+      </c>
+      <c r="C32" s="15">
+        <f t="shared" ref="C32" si="4">B32+4</f>
+        <v>1909</v>
+      </c>
+      <c r="D32" s="152"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="135"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="40"/>
+      <c r="S32" s="156"/>
+      <c r="T32" s="73"/>
+      <c r="V32" s="142"/>
+    </row>
+    <row r="33" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13">
+        <f t="shared" si="2"/>
+        <v>1908</v>
+      </c>
+      <c r="B33" s="14">
+        <f t="shared" ref="B33:B48" si="5">A33+1</f>
+        <v>1909</v>
+      </c>
+      <c r="C33" s="15">
+        <f t="shared" ref="C33:C48" si="6">B33+4</f>
+        <v>1913</v>
+      </c>
+      <c r="D33" s="150">
+        <v>27</v>
+      </c>
+      <c r="E33" s="136" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="135"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="40"/>
+      <c r="S33" s="156"/>
+      <c r="T33" s="73"/>
+      <c r="V33" s="142"/>
+    </row>
+    <row r="34" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13">
+        <f t="shared" si="2"/>
+        <v>1912</v>
+      </c>
+      <c r="B34" s="14">
+        <f t="shared" si="5"/>
+        <v>1913</v>
+      </c>
+      <c r="C34" s="15">
+        <f t="shared" si="6"/>
+        <v>1917</v>
+      </c>
+      <c r="D34" s="150">
+        <v>28</v>
+      </c>
+      <c r="E34" s="169" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" s="135"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="157" t="s">
+        <v>82</v>
+      </c>
+      <c r="P34" s="157" t="s">
+        <v>83</v>
+      </c>
+      <c r="S34" s="156"/>
+      <c r="T34" s="73"/>
+      <c r="V34" s="142"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <f t="shared" si="2"/>
+        <v>1916</v>
+      </c>
+      <c r="B35" s="14">
+        <f t="shared" si="5"/>
+        <v>1917</v>
+      </c>
+      <c r="C35" s="15">
+        <f t="shared" si="6"/>
+        <v>1921</v>
+      </c>
+      <c r="D35" s="150"/>
+      <c r="E35" s="170"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="40"/>
+      <c r="S35" s="156"/>
+      <c r="T35" s="73"/>
+      <c r="V35" s="142"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <f t="shared" si="2"/>
+        <v>1920</v>
+      </c>
+      <c r="B36" s="14">
+        <f t="shared" si="5"/>
+        <v>1921</v>
+      </c>
+      <c r="C36" s="15">
+        <f t="shared" si="6"/>
+        <v>1925</v>
+      </c>
+      <c r="D36" s="150" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="136" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="140" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="32"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="40"/>
+      <c r="S36" s="156"/>
+      <c r="T36" s="73"/>
+      <c r="V36" s="142"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <f t="shared" si="2"/>
+        <v>1924</v>
+      </c>
+      <c r="B37" s="14">
+        <f t="shared" si="5"/>
+        <v>1925</v>
+      </c>
+      <c r="C37" s="15">
+        <f t="shared" si="6"/>
+        <v>1929</v>
+      </c>
+      <c r="D37" s="150">
+        <v>30</v>
+      </c>
+      <c r="E37" s="136" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="135"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="40"/>
+      <c r="S37" s="156"/>
+      <c r="T37" s="73"/>
+      <c r="V37" s="142"/>
+    </row>
+    <row r="38" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13">
+        <f t="shared" si="2"/>
+        <v>1928</v>
+      </c>
+      <c r="B38" s="14">
+        <f t="shared" si="5"/>
+        <v>1929</v>
+      </c>
+      <c r="C38" s="15">
+        <f t="shared" si="6"/>
+        <v>1933</v>
+      </c>
+      <c r="D38" s="150">
+        <v>31</v>
+      </c>
+      <c r="E38" s="136" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="135"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="40"/>
+      <c r="S38" s="75"/>
+      <c r="T38" s="73"/>
+      <c r="V38" s="142"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <f t="shared" si="2"/>
+        <v>1932</v>
+      </c>
+      <c r="B39" s="14">
+        <f t="shared" si="5"/>
+        <v>1933</v>
+      </c>
+      <c r="C39" s="15">
+        <f t="shared" si="6"/>
+        <v>1937</v>
+      </c>
+      <c r="D39" s="153">
+        <v>32</v>
+      </c>
+      <c r="E39" s="169" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="135"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="40"/>
+      <c r="T39" s="73"/>
+      <c r="V39" s="142"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
+        <f t="shared" si="2"/>
+        <v>1936</v>
+      </c>
+      <c r="B40" s="14">
+        <f t="shared" si="5"/>
+        <v>1937</v>
+      </c>
+      <c r="C40" s="15">
+        <f t="shared" si="6"/>
+        <v>1941</v>
+      </c>
+      <c r="D40" s="154"/>
+      <c r="E40" s="171"/>
+      <c r="F40" s="135"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="40"/>
+      <c r="T40" s="73"/>
+      <c r="V40" s="142"/>
+    </row>
+    <row r="41" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="16">
+        <f t="shared" si="2"/>
+        <v>1940</v>
+      </c>
+      <c r="B41" s="17">
+        <f t="shared" si="5"/>
+        <v>1941</v>
+      </c>
+      <c r="C41" s="18">
+        <f t="shared" si="6"/>
+        <v>1945</v>
+      </c>
+      <c r="D41" s="155"/>
+      <c r="E41" s="170"/>
+      <c r="F41" s="147"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="43"/>
+      <c r="T41" s="72"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" s="31"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E13:E14"/>
+  <mergeCells count="73">
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="G23:J41"/>
+    <mergeCell ref="K23:N41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="T28:T30"/>
+    <mergeCell ref="T31:T41"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="S21:S29"/>
+    <mergeCell ref="S30:S38"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="K5:N9"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="S3:S12"/>
     <mergeCell ref="S13:S20"/>
     <mergeCell ref="P19:P21"/>
     <mergeCell ref="R16:R18"/>
-    <mergeCell ref="S21:S24"/>
     <mergeCell ref="O1:R2"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G10:N12"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="G13:J20"/>
     <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="K21:N24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="K5:N9"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="F10:F11"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:J9"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G10:N12"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="T22:T24"/>
@@ -2705,13 +3628,14 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="G22:J24"/>
     <mergeCell ref="M17:N20"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="G1:N1"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="G3:N4"/>
+    <mergeCell ref="G5:J9"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E1:E2"/>
@@ -2727,6 +3651,10 @@
     <mergeCell ref="T20:T21"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Presidential Timeline.xlsx
+++ b/Presidential Timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\khora\Documents\GitHub\APUSH-Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C22253-6FF7-452A-9E04-19ED1FE5A5E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFE78DA-0371-4B98-9097-DC3A925D10C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-5370" windowWidth="24240" windowHeight="13140" xr2:uid="{ED6EDC44-F4A8-46AA-B4C9-693CA238D22E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{ED6EDC44-F4A8-46AA-B4C9-693CA238D22E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -285,9 +285,6 @@
     <t>Socialist</t>
   </si>
   <si>
-    <t>Populist</t>
-  </si>
-  <si>
     <t>*Elected by the House through the Compromise of 1877</t>
   </si>
   <si>
@@ -304,6 +301,9 @@
   </si>
   <si>
     <t>Moderate president, let good civil servants keep their jobs, kept the National Bank</t>
+  </si>
+  <si>
+    <t>Populist (Absorbed by Democrats)</t>
   </si>
 </sst>
 </file>
@@ -1292,6 +1292,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1327,6 +1385,315 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1348,373 +1715,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2044,8 +2044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0533EE4-0E4C-457B-A0B9-30036464F7A8}">
   <dimension ref="A1:X48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2067,52 +2067,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="52" t="s">
+      <c r="B1" s="135"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="86" t="s">
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="52" t="s">
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="71" t="s">
+      <c r="T1" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="74" t="s">
+      <c r="U1" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="V1" s="74" t="s">
+      <c r="V1" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="W1" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="X1" s="54"/>
+      <c r="W1" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="X1" s="152"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2124,31 +2124,31 @@
       <c r="C2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="89" t="s">
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90" t="s">
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="70"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="84"/>
       <c r="T2" s="72"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="54"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="152"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
@@ -2162,31 +2162,31 @@
         <f>B3+4</f>
         <v>1794</v>
       </c>
-      <c r="D3" s="79">
+      <c r="D3" s="137">
         <v>1</v>
       </c>
-      <c r="E3" s="158" t="s">
+      <c r="E3" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="100"/>
-      <c r="G3" s="87" t="s">
+      <c r="F3" s="151"/>
+      <c r="G3" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="88"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="108"/>
       <c r="O3" s="21"/>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
-      <c r="S3" s="52" t="s">
+      <c r="S3" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="71" t="s">
+      <c r="T3" s="70" t="s">
         <v>48</v>
       </c>
       <c r="W3" s="26"/>
@@ -2200,26 +2200,26 @@
         <v>1793</v>
       </c>
       <c r="C4" s="15">
-        <f t="shared" ref="C4:C32" si="1">B4+4</f>
+        <f t="shared" ref="C4:C31" si="1">B4+4</f>
         <v>1797</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="93"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="110"/>
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="73"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="71"/>
       <c r="W4" s="26"/>
     </row>
     <row r="5" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2238,33 +2238,33 @@
       <c r="D5" s="6">
         <v>2</v>
       </c>
-      <c r="E5" s="160" t="s">
+      <c r="E5" s="41" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="94" t="s">
+      <c r="G5" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="122" t="s">
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
-      <c r="N5" s="124"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="89"/>
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
-      <c r="S5" s="53"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="72"/>
       <c r="W5" s="26"/>
     </row>
     <row r="6" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
-        <f t="shared" ref="A6:A48" si="2">A5+4</f>
+        <f t="shared" ref="A6:A41" si="2">A5+4</f>
         <v>1800</v>
       </c>
       <c r="B6" s="14">
@@ -2275,34 +2275,34 @@
         <f t="shared" si="1"/>
         <v>1805</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="115">
         <v>3</v>
       </c>
-      <c r="E6" s="161" t="s">
+      <c r="E6" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="101"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="127"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="92"/>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="52" t="s">
+      <c r="S6" s="78"/>
+      <c r="T6" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="U6" s="141" t="s">
-        <v>90</v>
+      <c r="U6" s="48" t="s">
+        <v>89</v>
       </c>
       <c r="W6" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -2318,24 +2318,24 @@
         <f t="shared" si="1"/>
         <v>1809</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="127"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="92"/>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="141"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="48"/>
       <c r="W7" s="31"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -2351,27 +2351,27 @@
         <f t="shared" si="1"/>
         <v>1813</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="115">
         <v>4</v>
       </c>
-      <c r="E8" s="161" t="s">
+      <c r="E8" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="101"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="127"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="147"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="148"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="92"/>
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="78"/>
       <c r="W8" s="23"/>
     </row>
     <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2387,23 +2387,23 @@
         <f t="shared" si="1"/>
         <v>1817</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="129"/>
-      <c r="M9" s="129"/>
-      <c r="N9" s="130"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="149"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="95"/>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="78"/>
       <c r="W9" s="23"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -2419,29 +2419,29 @@
         <f t="shared" si="1"/>
         <v>1821</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="115">
         <v>5</v>
       </c>
-      <c r="E10" s="162" t="s">
+      <c r="E10" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="101"/>
-      <c r="G10" s="102" t="s">
+      <c r="F10" s="99"/>
+      <c r="G10" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="103"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="112"/>
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78"/>
       <c r="W10" s="23"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -2457,23 +2457,23 @@
         <f t="shared" si="1"/>
         <v>1825</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="103"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="112"/>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
       <c r="W11" s="23"/>
     </row>
     <row r="12" spans="1:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2492,26 +2492,26 @@
       <c r="D12" s="6">
         <v>6</v>
       </c>
-      <c r="E12" s="163" t="s">
+      <c r="E12" s="42" t="s">
         <v>60</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="104"/>
-      <c r="M12" s="104"/>
-      <c r="N12" s="105"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="114"/>
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="53"/>
-      <c r="W12" s="172" t="s">
-        <v>87</v>
+      <c r="S12" s="84"/>
+      <c r="T12" s="78"/>
+      <c r="W12" s="46" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2527,35 +2527,35 @@
         <f t="shared" si="1"/>
         <v>1833</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="115">
         <v>7</v>
       </c>
-      <c r="E13" s="164" t="s">
+      <c r="E13" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="101"/>
-      <c r="G13" s="111" t="s">
+      <c r="F13" s="99"/>
+      <c r="G13" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="131" t="s">
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="132"/>
-      <c r="M13" s="132"/>
-      <c r="N13" s="133"/>
-      <c r="O13" s="61" t="s">
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="103" t="s">
         <v>52</v>
       </c>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
-      <c r="S13" s="52" t="s">
+      <c r="S13" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="T13" s="53"/>
+      <c r="T13" s="78"/>
       <c r="W13" s="23"/>
     </row>
     <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2571,25 +2571,25 @@
         <f t="shared" si="1"/>
         <v>1837</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="164"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="64" t="s">
+      <c r="D14" s="115"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="63"/>
+      <c r="L14" s="160"/>
+      <c r="M14" s="160"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="105"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="78"/>
       <c r="W14" s="23"/>
     </row>
     <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2608,24 +2608,24 @@
       <c r="D15" s="6">
         <v>8</v>
       </c>
-      <c r="E15" s="165" t="s">
+      <c r="E15" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="69"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="162"/>
+      <c r="L15" s="163"/>
+      <c r="M15" s="163"/>
+      <c r="N15" s="164"/>
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="78"/>
       <c r="W15" s="23"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -2644,32 +2644,32 @@
       <c r="D16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="166" t="s">
+      <c r="E16" s="44" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="114"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="55" t="s">
+      <c r="G16" s="125"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="153" t="s">
         <v>33</v>
       </c>
-      <c r="L16" s="56"/>
+      <c r="L16" s="154"/>
       <c r="M16" s="24"/>
       <c r="N16" s="25"/>
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
-      <c r="Q16" s="61" t="s">
+      <c r="Q16" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="R16" s="61" t="s">
+      <c r="R16" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="78"/>
       <c r="W16" s="23" t="s">
         <v>57</v>
       </c>
@@ -2690,24 +2690,24 @@
       <c r="D17" s="6">
         <v>11</v>
       </c>
-      <c r="E17" s="167" t="s">
+      <c r="E17" s="45" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="81"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="155"/>
+      <c r="L17" s="156"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="139"/>
       <c r="O17" s="21"/>
       <c r="P17" s="21"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
+      <c r="Q17" s="104"/>
+      <c r="R17" s="104"/>
+      <c r="S17" s="78"/>
+      <c r="T17" s="78"/>
       <c r="W17" s="23"/>
     </row>
     <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2726,26 +2726,26 @@
       <c r="D18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="166" t="s">
+      <c r="E18" s="44" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="114"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="83"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="155"/>
+      <c r="L18" s="156"/>
+      <c r="M18" s="140"/>
+      <c r="N18" s="141"/>
       <c r="O18" s="21"/>
       <c r="P18" s="21"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="70"/>
+      <c r="Q18" s="104"/>
+      <c r="R18" s="105"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="84"/>
       <c r="W18" s="23"/>
     </row>
     <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2764,25 +2764,25 @@
       <c r="D19" s="6">
         <v>14</v>
       </c>
-      <c r="E19" s="165" t="s">
+      <c r="E19" s="43" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="10"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="83"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="127"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="156"/>
+      <c r="M19" s="140"/>
+      <c r="N19" s="141"/>
       <c r="O19" s="21"/>
-      <c r="P19" s="118" t="s">
+      <c r="P19" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="Q19" s="62"/>
+      <c r="Q19" s="104"/>
       <c r="R19" s="20"/>
-      <c r="S19" s="53"/>
+      <c r="S19" s="78"/>
       <c r="T19" s="11" t="s">
         <v>50</v>
       </c>
@@ -2804,24 +2804,24 @@
       <c r="D20" s="6">
         <v>15</v>
       </c>
-      <c r="E20" s="165" t="s">
+      <c r="E20" s="43" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="8"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="85"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="157"/>
+      <c r="L20" s="158"/>
+      <c r="M20" s="142"/>
+      <c r="N20" s="143"/>
       <c r="O20" s="21"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="62"/>
+      <c r="P20" s="101"/>
+      <c r="Q20" s="104"/>
       <c r="R20" s="20"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="52" t="s">
+      <c r="S20" s="84"/>
+      <c r="T20" s="77" t="s">
         <v>49</v>
       </c>
       <c r="W20" s="23"/>
@@ -2839,39 +2839,39 @@
         <f t="shared" si="1"/>
         <v>1865</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="168" t="s">
+      <c r="E21" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="106" t="s">
+      <c r="F21" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="107" t="s">
+      <c r="G21" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="108"/>
-      <c r="I21" s="109" t="s">
+      <c r="H21" s="119"/>
+      <c r="I21" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="110"/>
-      <c r="K21" s="46" t="s">
+      <c r="J21" s="121"/>
+      <c r="K21" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="48"/>
+      <c r="L21" s="170"/>
+      <c r="M21" s="170"/>
+      <c r="N21" s="171"/>
       <c r="O21" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="P21" s="120"/>
-      <c r="Q21" s="63"/>
+      <c r="P21" s="102"/>
+      <c r="Q21" s="105"/>
       <c r="R21" s="20"/>
-      <c r="S21" s="52" t="s">
+      <c r="S21" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="T21" s="91"/>
+      <c r="T21" s="133"/>
       <c r="W21" s="23"/>
     </row>
     <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2887,26 +2887,26 @@
         <f t="shared" si="1"/>
         <v>1869</v>
       </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="168"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="148"/>
-      <c r="I22" s="44" t="s">
+      <c r="D22" s="115"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="167" t="s">
         <v>62</v>
       </c>
-      <c r="J22" s="45"/>
-      <c r="K22" s="49" t="s">
+      <c r="J22" s="168"/>
+      <c r="K22" s="172" t="s">
         <v>61</v>
       </c>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="50"/>
+      <c r="L22" s="172"/>
+      <c r="M22" s="172"/>
+      <c r="N22" s="173"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="88" t="s">
+      <c r="S22" s="78"/>
+      <c r="T22" s="108" t="s">
         <v>51</v>
       </c>
       <c r="W22" s="23"/>
@@ -2924,31 +2924,31 @@
         <f t="shared" si="1"/>
         <v>1873</v>
       </c>
-      <c r="D23" s="51">
+      <c r="D23" s="115">
         <v>18</v>
       </c>
-      <c r="E23" s="168" t="s">
+      <c r="E23" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="90"/>
-      <c r="G23" s="32" t="s">
+      <c r="F23" s="86"/>
+      <c r="G23" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="38" t="s">
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="40"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="60"/>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
       <c r="R23" s="21"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="91"/>
+      <c r="S23" s="78"/>
+      <c r="T23" s="133"/>
       <c r="W23" s="23"/>
     </row>
     <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2964,23 +2964,23 @@
         <f t="shared" si="1"/>
         <v>1877</v>
       </c>
-      <c r="D24" s="134"/>
-      <c r="E24" s="168"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="40"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="60"/>
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="91"/>
+      <c r="S24" s="78"/>
+      <c r="T24" s="133"/>
       <c r="W24" s="23"/>
     </row>
     <row r="25" spans="1:23" ht="45" x14ac:dyDescent="0.25">
@@ -2996,31 +2996,31 @@
         <f t="shared" si="1"/>
         <v>1881</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="38">
         <v>19</v>
       </c>
-      <c r="E25" s="136" t="s">
+      <c r="E25" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="135"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="40"/>
-      <c r="S25" s="89"/>
-      <c r="T25" s="143" t="s">
+      <c r="F25" s="32"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="60"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="U25" s="142"/>
+      <c r="U25" s="36"/>
       <c r="V25" t="s">
-        <v>86</v>
-      </c>
-      <c r="W25" s="173" t="s">
         <v>85</v>
+      </c>
+      <c r="W25" s="47" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -3036,28 +3036,28 @@
         <f t="shared" si="1"/>
         <v>1885</v>
       </c>
-      <c r="D26" s="149" t="s">
+      <c r="D26" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="136" t="s">
+      <c r="E26" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="140" t="s">
+      <c r="F26" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="32"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="40"/>
-      <c r="S26" s="89"/>
-      <c r="T26" s="144"/>
-      <c r="U26" s="142"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="60"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="36"/>
       <c r="V26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3073,26 +3073,26 @@
         <f t="shared" si="1"/>
         <v>1889</v>
       </c>
-      <c r="D27" s="149">
+      <c r="D27" s="38">
         <v>22</v>
       </c>
-      <c r="E27" s="138" t="s">
+      <c r="E27" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="135"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="40"/>
-      <c r="S27" s="89"/>
-      <c r="T27" s="145"/>
-      <c r="U27" s="142"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="60"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="69"/>
+      <c r="U27" s="36"/>
       <c r="V27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3108,31 +3108,31 @@
         <f t="shared" si="1"/>
         <v>1893</v>
       </c>
-      <c r="D28" s="150">
+      <c r="D28" s="39">
         <v>23</v>
       </c>
-      <c r="E28" s="136" t="s">
+      <c r="E28" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="135"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="40"/>
-      <c r="S28" s="89"/>
-      <c r="T28" s="143" t="s">
+      <c r="F28" s="32"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="60"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="U28" s="142"/>
+      <c r="U28" s="36"/>
       <c r="V28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
         <f t="shared" si="2"/>
         <v>1892</v>
@@ -3145,30 +3145,30 @@
         <f t="shared" si="1"/>
         <v>1897</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="39">
         <v>24</v>
       </c>
-      <c r="E29" s="138" t="s">
+      <c r="E29" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="135"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="157" t="s">
-        <v>84</v>
-      </c>
-      <c r="S29" s="121"/>
-      <c r="T29" s="144"/>
-      <c r="U29" s="142"/>
-      <c r="V29" s="142"/>
-    </row>
-    <row r="30" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="32"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="103" t="s">
+        <v>90</v>
+      </c>
+      <c r="S29" s="80"/>
+      <c r="T29" s="68"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+    </row>
+    <row r="30" spans="1:23" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <f t="shared" si="2"/>
         <v>1896</v>
@@ -3181,29 +3181,30 @@
         <f t="shared" si="1"/>
         <v>1901</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="39">
         <v>25</v>
       </c>
-      <c r="E30" s="136" t="s">
+      <c r="E30" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="135"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="40"/>
-      <c r="S30" s="74" t="s">
+      <c r="F30" s="32"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="105"/>
+      <c r="S30" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="T30" s="145"/>
-      <c r="U30" s="142"/>
-      <c r="V30" s="142"/>
-    </row>
-    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T30" s="69"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <f t="shared" si="2"/>
         <v>1900</v>
@@ -3216,26 +3217,26 @@
         <f t="shared" si="1"/>
         <v>1905</v>
       </c>
-      <c r="D31" s="151">
+      <c r="D31" s="75">
         <v>26</v>
       </c>
-      <c r="E31" s="137" t="s">
+      <c r="E31" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="135"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="40"/>
-      <c r="S31" s="156"/>
-      <c r="T31" s="71" t="s">
+      <c r="F31" s="32"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="60"/>
+      <c r="S31" s="82"/>
+      <c r="T31" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="V31" s="142"/>
+      <c r="V31" s="36"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
@@ -3250,20 +3251,20 @@
         <f t="shared" ref="C32" si="4">B32+4</f>
         <v>1909</v>
       </c>
-      <c r="D32" s="152"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="40"/>
-      <c r="S32" s="156"/>
-      <c r="T32" s="73"/>
-      <c r="V32" s="142"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="60"/>
+      <c r="S32" s="82"/>
+      <c r="T32" s="71"/>
+      <c r="V32" s="36"/>
     </row>
     <row r="33" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
@@ -3271,31 +3272,31 @@
         <v>1908</v>
       </c>
       <c r="B33" s="14">
-        <f t="shared" ref="B33:B48" si="5">A33+1</f>
+        <f t="shared" ref="B33:B41" si="5">A33+1</f>
         <v>1909</v>
       </c>
       <c r="C33" s="15">
-        <f t="shared" ref="C33:C48" si="6">B33+4</f>
+        <f t="shared" ref="C33:C41" si="6">B33+4</f>
         <v>1913</v>
       </c>
-      <c r="D33" s="150">
+      <c r="D33" s="39">
         <v>27</v>
       </c>
-      <c r="E33" s="136" t="s">
+      <c r="E33" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="135"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="40"/>
-      <c r="S33" s="156"/>
-      <c r="T33" s="73"/>
-      <c r="V33" s="142"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="60"/>
+      <c r="S33" s="82"/>
+      <c r="T33" s="71"/>
+      <c r="V33" s="36"/>
     </row>
     <row r="34" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
@@ -3310,30 +3311,30 @@
         <f t="shared" si="6"/>
         <v>1917</v>
       </c>
-      <c r="D34" s="150">
+      <c r="D34" s="39">
         <v>28</v>
       </c>
-      <c r="E34" s="169" t="s">
+      <c r="E34" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="F34" s="135"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="157" t="s">
+      <c r="F34" s="32"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="P34" s="157" t="s">
+      <c r="P34" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="S34" s="156"/>
-      <c r="T34" s="73"/>
-      <c r="V34" s="142"/>
+      <c r="S34" s="82"/>
+      <c r="T34" s="71"/>
+      <c r="V34" s="36"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
@@ -3348,20 +3349,20 @@
         <f t="shared" si="6"/>
         <v>1921</v>
       </c>
-      <c r="D35" s="150"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="135"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="40"/>
-      <c r="S35" s="156"/>
-      <c r="T35" s="73"/>
-      <c r="V35" s="142"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="60"/>
+      <c r="S35" s="82"/>
+      <c r="T35" s="71"/>
+      <c r="V35" s="36"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
@@ -3376,26 +3377,26 @@
         <f t="shared" si="6"/>
         <v>1925</v>
       </c>
-      <c r="D36" s="150" t="s">
+      <c r="D36" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="E36" s="136" t="s">
+      <c r="E36" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="F36" s="140" t="s">
+      <c r="F36" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="G36" s="32"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="40"/>
-      <c r="S36" s="156"/>
-      <c r="T36" s="73"/>
-      <c r="V36" s="142"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="60"/>
+      <c r="S36" s="82"/>
+      <c r="T36" s="71"/>
+      <c r="V36" s="36"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
@@ -3410,24 +3411,24 @@
         <f t="shared" si="6"/>
         <v>1929</v>
       </c>
-      <c r="D37" s="150">
+      <c r="D37" s="39">
         <v>30</v>
       </c>
-      <c r="E37" s="136" t="s">
+      <c r="E37" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F37" s="135"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="40"/>
-      <c r="S37" s="156"/>
-      <c r="T37" s="73"/>
-      <c r="V37" s="142"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="60"/>
+      <c r="S37" s="82"/>
+      <c r="T37" s="71"/>
+      <c r="V37" s="36"/>
     </row>
     <row r="38" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
@@ -3442,24 +3443,24 @@
         <f t="shared" si="6"/>
         <v>1933</v>
       </c>
-      <c r="D38" s="150">
+      <c r="D38" s="39">
         <v>31</v>
       </c>
-      <c r="E38" s="136" t="s">
+      <c r="E38" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="F38" s="135"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="40"/>
-      <c r="S38" s="75"/>
-      <c r="T38" s="73"/>
-      <c r="V38" s="142"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="59"/>
+      <c r="N38" s="60"/>
+      <c r="S38" s="83"/>
+      <c r="T38" s="71"/>
+      <c r="V38" s="36"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
@@ -3474,23 +3475,23 @@
         <f t="shared" si="6"/>
         <v>1937</v>
       </c>
-      <c r="D39" s="153">
+      <c r="D39" s="64">
         <v>32</v>
       </c>
-      <c r="E39" s="169" t="s">
+      <c r="E39" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="F39" s="135"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="40"/>
-      <c r="T39" s="73"/>
-      <c r="V39" s="142"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="60"/>
+      <c r="T39" s="71"/>
+      <c r="V39" s="36"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
@@ -3505,19 +3506,19 @@
         <f t="shared" si="6"/>
         <v>1941</v>
       </c>
-      <c r="D40" s="154"/>
-      <c r="E40" s="171"/>
-      <c r="F40" s="135"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="40"/>
-      <c r="T40" s="73"/>
-      <c r="V40" s="142"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="60"/>
+      <c r="T40" s="71"/>
+      <c r="V40" s="36"/>
     </row>
     <row r="41" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
@@ -3532,17 +3533,17 @@
         <f t="shared" si="6"/>
         <v>1945</v>
       </c>
-      <c r="D41" s="155"/>
-      <c r="E41" s="170"/>
-      <c r="F41" s="147"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="43"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="63"/>
       <c r="T41" s="72"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -3581,12 +3582,54 @@
       <c r="C48" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="G23:J41"/>
-    <mergeCell ref="K23:N41"/>
+  <mergeCells count="74">
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="K14:N15"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="T6:T18"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="G3:N4"/>
+    <mergeCell ref="G5:J9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="S3:S12"/>
+    <mergeCell ref="S13:S20"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="Q16:Q21"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="K5:N9"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G10:N12"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G13:J20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G22:H22"/>
     <mergeCell ref="D39:D41"/>
     <mergeCell ref="T25:T27"/>
     <mergeCell ref="T28:T30"/>
@@ -3595,66 +3638,25 @@
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="S21:S29"/>
     <mergeCell ref="S30:S38"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="K5:N9"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="S3:S12"/>
-    <mergeCell ref="S13:S20"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="R16:R18"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G10:N12"/>
     <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G13:J20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="T22:T24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="G23:J41"/>
+    <mergeCell ref="K23:N41"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="T22:T24"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
     <mergeCell ref="M17:N20"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="G3:N4"/>
-    <mergeCell ref="G5:J9"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="X1:X2"/>
     <mergeCell ref="K16:L20"/>
-    <mergeCell ref="Q16:Q21"/>
-    <mergeCell ref="K14:N15"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="T6:T18"/>
-    <mergeCell ref="T3:T5"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
